--- a/ExamenGrupalADA/EvaluacionTiempo.xlsx
+++ b/ExamenGrupalADA/EvaluacionTiempo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\java\repo-anaalg\ExamenGrupalADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF127EA-2B1B-476D-A443-D2C5C0CD67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2D151-6742-487D-8238-7E7B3E839FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Busqueda" sheetId="1" r:id="rId1"/>
+    <sheet name="MergeSort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Datos</t>
   </si>
@@ -51,6 +52,21 @@
   </si>
   <si>
     <t>T(n)</t>
+  </si>
+  <si>
+    <t>(13n+21)(2^n-1)+4*2^n</t>
+  </si>
+  <si>
+    <t>ordenarfila</t>
+  </si>
+  <si>
+    <t>ordenarColumna</t>
+  </si>
+  <si>
+    <t>ordenarMatriz</t>
+  </si>
+  <si>
+    <t>nanosegundos</t>
   </si>
 </sst>
 </file>
@@ -193,7 +209,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$B$2</c:f>
+              <c:f>Busqueda!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -228,7 +244,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$12</c:f>
+              <c:f>Busqueda!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -277,7 +293,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$2</c:f>
+              <c:f>Busqueda!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -312,7 +328,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$3:$C$12</c:f>
+              <c:f>Busqueda!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -558,7 +574,888 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MergeSort</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MergeSort!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nanosegundos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>MergeSort!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>37700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>172700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>347100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>566300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>214400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>306700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>373800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>501900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>591800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CC46-4365-85FA-1ECA168491B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="656924128"/>
+        <c:axId val="656921248"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>MergeSort</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$B$2:$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>773120</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1473249280</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2206539448320</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2974178953134080</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.7773941874570035E+18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.6174506259504221E+21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.4956539944395496E+24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.4133514730556078E+27</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.3719329339444395E+30</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.3728322145074552E+33</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-CC46-4365-85FA-1ECA168491B6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ordenarfila</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$C$2:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>773123</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1473249283</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2206539448323</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2974178953134083</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.7773941874570035E+18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.6174506259504221E+21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.4956539944395496E+24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.4133514730556078E+27</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.3719329339444395E+30</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.3728322145074552E+33</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-CC46-4365-85FA-1ECA168491B6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ordenarColumna</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$D$2:$D$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>773188</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1473249408</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2206539448508</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2974178953134328</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.777394187457004E+18</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.6174506259504221E+21</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5.4956539944395496E+24</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6.4133514730556078E+27</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>7.3719329339444395E+30</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.3728322145074552E+33</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-CC46-4365-85FA-1ECA168491B6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>ordenarMatriz</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$E$2:$E$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>7731253</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>29464985703</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>66196183449753</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.1896715812536341E+17</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.8886970937285018E+20</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.7704703755702533E+23</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.8469577961076847E+26</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>5.1306811784444862E+29</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6.6347396405499956E+32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>8.3728322145074552E+35</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-CC46-4365-85FA-1ECA168491B6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$G$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>segundos</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>MergeSort!$G$2:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>3.7700000000000002E-5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.727E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4709999999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.6630000000000005E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.6699999999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.1440000000000001E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.0669999999999997E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.7379999999999998E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>5.019E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.9179999999999996E-4</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-CC46-4365-85FA-1ECA168491B6}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="656924128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656921248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="656921248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656924128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1101,6 +1998,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1122,6 +2522,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300E0802-30F5-28B4-1CF7-93D499A01876}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>701675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55083A1D-675C-2B07-7DA5-98A5C45220BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1460,7 +2901,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:C12" si="0">2*$A4*$A4+7*$A4+8</f>
+        <f t="shared" ref="B4:B12" si="0">2*$A4*$A4+7*$A4+8</f>
         <v>948</v>
       </c>
       <c r="C4">
@@ -1607,4 +3048,330 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B57F09-C9C9-4643-B13E-1CA6ADFB12AB}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>(13*A2+21)*(POWER(2,A2)+4*POWER(2,A2))</f>
+        <v>773120</v>
+      </c>
+      <c r="C2">
+        <f>B2+3</f>
+        <v>773123</v>
+      </c>
+      <c r="D2">
+        <f>B2+6*A2+8</f>
+        <v>773188</v>
+      </c>
+      <c r="E2">
+        <f>2*A2+3+A2*C2</f>
+        <v>7731253</v>
+      </c>
+      <c r="F2">
+        <v>37700</v>
+      </c>
+      <c r="G2">
+        <f>F2/1000000000</f>
+        <v>3.7700000000000002E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">(13*A3+21)*(POWER(2,A3)+4*POWER(2,A3))</f>
+        <v>1473249280</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="1">B3+3</f>
+        <v>1473249283</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D11" si="2">B3+6*A3+8</f>
+        <v>1473249408</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="3">2*A3+3+A3*C3</f>
+        <v>29464985703</v>
+      </c>
+      <c r="F3">
+        <v>172700</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="4">F3/1000000000</f>
+        <v>1.727E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2206539448320</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2206539448323</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>2206539448508</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>66196183449753</v>
+      </c>
+      <c r="F4">
+        <v>347100</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="4"/>
+        <v>3.4709999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2974178953134080</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2974178953134083</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>2974178953134328</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.1896715812536341E+17</v>
+      </c>
+      <c r="F5">
+        <v>566300</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>5.6630000000000005E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>3.7773941874570035E+18</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.7773941874570035E+18</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>3.777394187457004E+18</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1.8886970937285018E+20</v>
+      </c>
+      <c r="F6">
+        <v>267000</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="4"/>
+        <v>2.6699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4.6174506259504221E+21</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>4.6174506259504221E+21</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>4.6174506259504221E+21</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>2.7704703755702533E+23</v>
+      </c>
+      <c r="F7">
+        <v>214400</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="4"/>
+        <v>2.1440000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5.4956539944395496E+24</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>5.4956539944395496E+24</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>5.4956539944395496E+24</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>3.8469577961076847E+26</v>
+      </c>
+      <c r="F8">
+        <v>306700</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="4"/>
+        <v>3.0669999999999997E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6.4133514730556078E+27</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>6.4133514730556078E+27</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>6.4133514730556078E+27</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>5.1306811784444862E+29</v>
+      </c>
+      <c r="F9">
+        <v>373800</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>3.7379999999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7.3719329339444395E+30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>7.3719329339444395E+30</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>7.3719329339444395E+30</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>6.6347396405499956E+32</v>
+      </c>
+      <c r="F10">
+        <v>501900</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>5.019E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>8.3728322145074552E+33</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>8.3728322145074552E+33</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>8.3728322145074552E+33</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>8.3728322145074552E+35</v>
+      </c>
+      <c r="F11">
+        <v>591800</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>5.9179999999999996E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>